--- a/Service_files/Common_information/Cultures_masks.xlsx
+++ b/Service_files/Common_information/Cultures_masks.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python programs\Nerual_Rabbit\Service_files\Common_information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python programs\Nerual_Rabbit_0\Service_files\Common_information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680D8C0-2E5A-430C-89D3-C19722FEF187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCFC812-3472-49D3-AFE3-0E22A801E678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2244" yWindow="696" windowWidth="20796" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="117">
   <si>
     <t>region</t>
   </si>
@@ -359,6 +370,18 @@
   </si>
   <si>
     <t>яровая пшеница</t>
+  </si>
+  <si>
+    <t>соя</t>
+  </si>
+  <si>
+    <t>пшеница озимая</t>
+  </si>
+  <si>
+    <t>пшеница яровая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зерновые и зернобобовые </t>
   </si>
 </sst>
 </file>
@@ -769,22 +792,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,10 +825,22 @@
         <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -815,13 +854,25 @@
         <v>90</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -835,13 +886,25 @@
         <v>90</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -855,13 +918,25 @@
         <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -877,9 +952,20 @@
       <c r="E5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -893,10 +979,22 @@
         <v>90</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -910,10 +1008,22 @@
         <v>90</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -927,10 +1037,22 @@
         <v>90</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -944,10 +1066,22 @@
         <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -963,8 +1097,20 @@
       <c r="E10" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -980,8 +1126,20 @@
       <c r="E11" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -997,8 +1155,20 @@
       <c r="E12" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1014,8 +1184,20 @@
       <c r="E13" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1031,8 +1213,20 @@
       <c r="E14" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1048,8 +1242,20 @@
       <c r="E15" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1063,10 +1269,22 @@
         <v>90</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1080,10 +1298,22 @@
         <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1099,8 +1329,20 @@
       <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1116,8 +1358,20 @@
       <c r="E19" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1131,10 +1385,22 @@
         <v>90</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1148,10 +1414,22 @@
         <v>90</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1165,10 +1443,22 @@
         <v>90</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1182,10 +1472,22 @@
         <v>90</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1201,8 +1503,20 @@
       <c r="E24" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1218,8 +1532,20 @@
       <c r="E25" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1233,10 +1559,22 @@
         <v>90</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1250,10 +1588,22 @@
         <v>90</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1269,8 +1619,20 @@
       <c r="E28" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1286,8 +1648,20 @@
       <c r="E29" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1303,8 +1677,20 @@
       <c r="E30" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1320,8 +1706,20 @@
       <c r="E31" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1337,8 +1735,20 @@
       <c r="E32" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1352,10 +1762,22 @@
         <v>90</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1369,10 +1791,22 @@
         <v>90</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1388,8 +1822,20 @@
       <c r="E35" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1403,10 +1849,22 @@
         <v>90</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1422,8 +1880,20 @@
       <c r="E37" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1437,10 +1907,22 @@
         <v>90</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1454,10 +1936,22 @@
         <v>90</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1473,8 +1967,20 @@
       <c r="E40" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1488,10 +1994,22 @@
         <v>90</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1505,10 +2023,22 @@
         <v>90</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1522,10 +2052,22 @@
         <v>90</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1539,10 +2081,22 @@
         <v>90</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1556,10 +2110,22 @@
         <v>90</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1573,10 +2139,22 @@
         <v>90</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1592,8 +2170,20 @@
       <c r="E47" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1609,8 +2199,20 @@
       <c r="E48" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1624,10 +2226,22 @@
         <v>90</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1641,10 +2255,22 @@
         <v>90</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1658,10 +2284,22 @@
         <v>90</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1675,10 +2313,22 @@
         <v>90</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1694,8 +2344,20 @@
       <c r="E53" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1709,10 +2371,22 @@
         <v>90</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1728,8 +2402,20 @@
       <c r="E55" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1743,10 +2429,22 @@
         <v>90</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1762,8 +2460,20 @@
       <c r="E57" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1777,10 +2487,22 @@
         <v>90</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1794,10 +2516,22 @@
         <v>90</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1811,10 +2545,22 @@
         <v>90</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1830,8 +2576,20 @@
       <c r="E61" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1845,10 +2603,22 @@
         <v>90</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1862,10 +2632,22 @@
         <v>90</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1879,10 +2661,22 @@
         <v>90</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1896,10 +2690,22 @@
         <v>90</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1913,10 +2719,22 @@
         <v>90</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1930,10 +2748,22 @@
         <v>90</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1947,10 +2777,22 @@
         <v>90</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1964,10 +2806,22 @@
         <v>90</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1983,8 +2837,20 @@
       <c r="E70" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1998,10 +2864,22 @@
         <v>90</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2015,10 +2893,22 @@
         <v>90</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2032,10 +2922,22 @@
         <v>90</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2049,10 +2951,22 @@
         <v>90</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2066,10 +2980,22 @@
         <v>90</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2083,10 +3009,22 @@
         <v>90</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2100,10 +3038,22 @@
         <v>90</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2117,10 +3067,22 @@
         <v>90</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2134,10 +3096,22 @@
         <v>90</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2151,10 +3125,22 @@
         <v>90</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2170,8 +3156,20 @@
       <c r="E81" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2187,8 +3185,20 @@
       <c r="E82" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2202,10 +3212,22 @@
         <v>90</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2219,10 +3241,22 @@
         <v>90</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2236,10 +3270,22 @@
         <v>90</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2253,10 +3299,22 @@
         <v>90</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2270,10 +3328,22 @@
         <v>90</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2287,10 +3357,22 @@
         <v>90</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2304,10 +3386,22 @@
         <v>90</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2321,10 +3415,22 @@
         <v>90</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2338,10 +3444,22 @@
         <v>90</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2355,10 +3473,22 @@
         <v>90</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2372,10 +3502,22 @@
         <v>90</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2389,10 +3531,22 @@
         <v>90</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2406,10 +3560,22 @@
         <v>90</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2423,10 +3589,22 @@
         <v>90</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2440,10 +3618,22 @@
         <v>90</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2457,10 +3647,22 @@
         <v>90</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2474,13 +3676,27 @@
         <v>90</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
